--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Time</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>InTime</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -466,6 +471,7 @@
           <t>19:45:10</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -481,6 +487,61 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>19:47:54</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Riya-Paliwal</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-10-22</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gurpratap-Singh</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Priyanshu-Shukla</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13:30</t>
         </is>
       </c>
     </row>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,114 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Priyanshu-Shukla</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>09:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Riya-Paliwal</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gurpratap-Singh</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Priyanshu-Shukla</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Priyanshu-Shukla</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Gurpratap-Singh</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2023-12-01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
